--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3043494.051272847</v>
+        <v>3041117.424325481</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>22.94971336712987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>8.695085082180299</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>56.30830983498225</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>148.0977202315502</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>293.464913684318</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>138.4227759882139</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>56.01246561959189</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>170.1051716139943</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>211.4496987473626</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>229.2119985218677</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>272.7116060246809</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>115.5971804138453</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="I13" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242265</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289879</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506638</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187886</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881263</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046984</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>7.613741235234181</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>9.146142788179397</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412187</v>
       </c>
     </row>
     <row r="35">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>65.67353929277157</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,13 +3436,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532365</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3509,13 +3509,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187844</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>102.1557845699827</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730973</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>918.0161179218655</v>
+        <v>867.5113594131255</v>
       </c>
       <c r="C2" t="n">
-        <v>549.0536009814539</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>549.0536009814539</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>549.0536009814539</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>138.0676961918463</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4033499565393</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
@@ -4358,7 +4358,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4367,13 +4367,13 @@
         <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>918.0161179218655</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="Y2" t="n">
-        <v>918.0161179218655</v>
+        <v>1254.111199477247</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341571</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>981.8280128167644</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="C4" t="n">
-        <v>812.8918298888575</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="D4" t="n">
-        <v>662.7751904765217</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941286</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>276.1103319011207</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>108.1238672093993</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.86271359008</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.86271359008</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.86271359008</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.269056790534</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="Y4" t="n">
-        <v>1163.476477647004</v>
+        <v>445.0465148290276</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.3028554854573</v>
+        <v>1267.498902304191</v>
       </c>
       <c r="C5" t="n">
-        <v>359.3403385450455</v>
+        <v>898.5363853637798</v>
       </c>
       <c r="D5" t="n">
-        <v>359.3403385450455</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="E5" t="n">
-        <v>359.3403385450455</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525391</v>
+        <v>2044.238074344125</v>
       </c>
       <c r="Y5" t="n">
-        <v>1114.902695549579</v>
+        <v>1654.098742368313</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,37 +4632,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694945</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
         <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.8408313751036</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="C7" t="n">
-        <v>305.8408313751036</v>
+        <v>275.8114993603224</v>
       </c>
       <c r="D7" t="n">
-        <v>305.8408313751036</v>
+        <v>275.8114993603224</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1362.039307919378</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1139.060827114113</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>849.9424896179511</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="V7" t="n">
-        <v>595.2580014120642</v>
+        <v>962.1544032232072</v>
       </c>
       <c r="W7" t="n">
-        <v>305.8408313751036</v>
+        <v>672.7372331862466</v>
       </c>
       <c r="X7" t="n">
-        <v>305.8408313751036</v>
+        <v>444.7476822882293</v>
       </c>
       <c r="Y7" t="n">
-        <v>305.8408313751036</v>
+        <v>444.7476822882293</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1957.346298904865</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="C8" t="n">
-        <v>1588.383781964454</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D8" t="n">
-        <v>1230.118083357703</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
         <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
         <v>421.6795797345444</v>
@@ -4799,13 +4799,13 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872917</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2330.812057165945</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2330.812057165945</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W8" t="n">
-        <v>2330.812057165945</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X8" t="n">
-        <v>1957.346298904865</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="Y8" t="n">
-        <v>1957.346298904865</v>
+        <v>1416.181083656475</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4878,28 +4878,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>368.0960630783031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C10" t="n">
-        <v>199.1598801503962</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D10" t="n">
-        <v>199.1598801503962</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1360.979851362698</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1106.295363156811</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W10" t="n">
-        <v>816.8781931198506</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X10" t="n">
-        <v>588.8886422218333</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y10" t="n">
-        <v>368.0960630783031</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5027,31 +5027,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5066,10 +5066,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466572</v>
@@ -5112,13 +5112,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
         <v>427.7414352191925</v>
@@ -5130,16 +5130,16 @@
         <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597619</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>244.7670222746419</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5364,19 +5364,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5525,40 +5525,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5580,37 +5580,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349512</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332384</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G21" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349512</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>766.1780053015058</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>618.2649117191127</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>471.3749642212023</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360822</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6054,37 +6054,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468476</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962607</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589159</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277368</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6458,28 +6458,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>251.562654109227</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>923.0670414349516</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>923.0670414349516</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989559</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2102.574735228846</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836027</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556958</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433601</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433601</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454497</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>101.5073107603296</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138424</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1025.119922845745</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>244.7670222746419</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>103.0551911168399</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>697.5276345711973</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192606</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349516</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349516</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998423</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>923.4916164683297</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>754.5554335404228</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>754.5554335404228</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>606.6423399580297</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>459.7523924601193</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>923.4916164683297</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397188</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1522.212916266271</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2074.122646505558</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297726</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297726</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797748</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192275</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111685</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075781</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516147</v>
       </c>
       <c r="L42" t="n">
-        <v>352.5519571452614</v>
+        <v>1058.18352155162</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>1655.562009178172</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859356</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>597.2418223735998</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912067</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.3287287912067</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>282.1326295060866</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482847</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138424</v>
       </c>
     </row>
     <row r="44">
@@ -7649,7 +7649,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8064,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>231.2582814363245</v>
+        <v>224.3355197601769</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>319.4183821282439</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>193.3273467878356</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-1.746669227101764e-12</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-3.467174623506993e-12</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10361,7 +10361,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>-1.928339651199622e-12</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-5.627498467219993e-12</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440134</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922446</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.3019692955601</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187079</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>132.6809716109897</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>72.11969353038614</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087609</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>114.1584408891657</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903233</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>63.36835372228612</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125578</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711286</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>732531.3793711287</v>
+        <v>732531.3793711289</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>732531.3793711287</v>
+        <v>732531.3793711289</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>732531.3793711289</v>
+        <v>732531.3793711287</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>732531.3793711287</v>
+        <v>732531.3793711286</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>732531.3793711287</v>
+        <v>732531.3793711289</v>
       </c>
     </row>
     <row r="16">
@@ -26314,25 +26314,25 @@
         <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846404</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="G2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="I2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.609736506</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365057</v>
@@ -26341,19 +26341,19 @@
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="M2" t="n">
-        <v>686074.6097365055</v>
-      </c>
       <c r="N2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365061</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365061</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099831</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>131909.7268316249</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707382</v>
+        <v>6897.424496707394</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707345</v>
+        <v>6897.424496707384</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707381</v>
+        <v>6897.424496707405</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707463</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707483</v>
+        <v>6897.424496707274</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707369</v>
+        <v>6897.424496707285</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707296</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707345</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707377</v>
+        <v>6897.424496707351</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707372</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-641713.7784627485</v>
       </c>
       <c r="C6" t="n">
-        <v>473038.0051131712</v>
+        <v>473038.0051131707</v>
       </c>
       <c r="D6" t="n">
         <v>473038.0051131712</v>
       </c>
       <c r="E6" t="n">
-        <v>70569.21379134532</v>
+        <v>70534.47586590952</v>
       </c>
       <c r="F6" t="n">
-        <v>578054.6554158912</v>
+        <v>578019.9174904554</v>
       </c>
       <c r="G6" t="n">
-        <v>578054.6554158911</v>
+        <v>578019.9174904557</v>
       </c>
       <c r="H6" t="n">
-        <v>578054.6554158912</v>
+        <v>578019.9174904553</v>
       </c>
       <c r="I6" t="n">
-        <v>578054.6554158914</v>
+        <v>578019.9174904559</v>
       </c>
       <c r="J6" t="n">
-        <v>410449.4776059084</v>
+        <v>410414.7396804724</v>
       </c>
       <c r="K6" t="n">
-        <v>578054.6554158912</v>
+        <v>578019.9174904556</v>
       </c>
       <c r="L6" t="n">
-        <v>578054.6554158914</v>
+        <v>578019.9174904556</v>
       </c>
       <c r="M6" t="n">
-        <v>445447.3616869643</v>
+        <v>445412.623761529</v>
       </c>
       <c r="N6" t="n">
-        <v>578054.6554158912</v>
+        <v>578019.9174904553</v>
       </c>
       <c r="O6" t="n">
-        <v>578054.6554158912</v>
+        <v>578019.917490456</v>
       </c>
       <c r="P6" t="n">
-        <v>578054.6554158912</v>
+        <v>578019.9174904565</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000396</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>342.3231784038777</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>292.3234674802251</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>90.94319932014659</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>77.61193515748695</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>113.4111320573934</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>231.3083246902551</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>90.42149702697728</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>24.55728874774323</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>153.823193023645</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>21.8332516065943</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>13.51554809651975</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>170.9258179227457</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29326,10 +29326,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>9.65407064635154e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.315036438411535e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -30229,13 +30229,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>383.9182138639285</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.846407116253</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>485.112703208291</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>453.4978307576759</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796291</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T28" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>297.1808238847177</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263838</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T31" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N33" t="n">
-        <v>290.6810969936921</v>
+        <v>416.7024900153318</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T34" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043693</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120927</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T37" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>345.1232217852605</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067199</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L42" t="n">
-        <v>399.9031616963283</v>
+        <v>622.4211036182633</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34784,13 +34784,13 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000389</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>622.4553810291984</v>
+        <v>615.5326193530509</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>617.0987427660941</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35264,7 +35264,7 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>528.7520287839585</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235322</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683784</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>249.9438064495983</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462657</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>342.5164587638465</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>314.9434509778017</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629577</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924692</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>159.3393849103587</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>182.4093308120536</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q31" t="n">
         <v>120.4022572998984</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243133</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N33" t="n">
-        <v>159.3393849103587</v>
+        <v>285.3607779319985</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q34" t="n">
         <v>120.4022572998984</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902372</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287594</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924674</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>211.1488143709303</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.53969023631402</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L42" t="n">
-        <v>261.3487819164541</v>
+        <v>483.866723838389</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
